--- a/TimeTable/urls.xlsx
+++ b/TimeTable/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ClassAutomation\TimeTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B901786B-FF8E-408D-AFBD-777D26D6F709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F4F52-8C42-431C-8C69-092143993B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>time</t>
   </si>
@@ -400,7 +400,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +448,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -458,10 +461,16 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTable/urls.xlsx
+++ b/TimeTable/urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ClassAutomation\TimeTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F4F52-8C42-431C-8C69-092143993B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3858AD73-5B5D-4BE2-840D-8CB044EACEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12744" windowHeight="11448" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>time</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>https://nlujodhpur.webex.com/webappng/sites/nlujodhpur/meeting/download/1ef64c5880b14852bf0d01e64bc936e6?siteurl=nlujodhpur&amp;MTID=mf50148c5543edeaf84b87978be488800</t>
+  </si>
+  <si>
+    <t>https://meetingsapac43.webex.com/meet/pr1703420195</t>
   </si>
 </sst>
 </file>
@@ -397,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D48131-B0E0-4935-9071-8225D65CC77D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,34 +430,43 @@
       <c r="G1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -465,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
